--- a/biology/Botanique/Hamamelis_japonica/Hamamelis_japonica.xlsx
+++ b/biology/Botanique/Hamamelis_japonica/Hamamelis_japonica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hamamelis japonica est une espèce de plantes ligneuses de la famille des Hamamelidaceae.
 </t>
@@ -511,13 +523,15 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Il s'agit d'un arbuste à feuilles caduques de 3 à 4 m de haut, mais pouvant atteindre jusqu'à 10 m.
 Ses feuilles sont dentelées ou lobées, et mesurent de 8 à 15 cm de long.
 La floraison est hivernale à printanière : de février à début avril. Les fleurs de cette espèce, généralement jaunes, sont parfumées. Elles sont constituées de 4 pétales étroits de 2 cm de long et de 4 étamines.
 Le fruit se présente sous la forme d'une capsule déhiscente fortement lignifiée mesurant 10 à 12 mm, qui explose à maturité et projette deux graines noires, parfois à plus de 10 m de distance.
-L'espèce compte 12 paires de chromosomes[1].
+L'espèce compte 12 paires de chromosomes.
 Plusieurs variétés botaniques sont répertoriées :
 Hamamelis japonica f. auriflora Satomi (1988)
 Hamamelis japonica var. bitchuensis (Makino) Ohwi (1953)
@@ -551,7 +565,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette plante est originaire du Japon et de Chine ; elle est maintenant présente dans toutes les régions tempérées (en plante d'ornement).
 </t>
@@ -582,7 +598,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est très appréciée pour sa floraison hivernale abondante et son parfum. Elle résiste à des températures de - 20 °C. De nombreuses variétés horticoles sont maintenant commercialisées : 'Arborea', 'Brentry', 'Pendula', 'Robin', 'Sulphurea', 'Zuccariniana'...
 			Floraison
